--- a/medicine/Pharmacie/1886_en_santé_et_médecine/1886_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1886_en_santé_et_médecine/1886_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1886_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1886_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1886 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1886_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1886_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Psychopathia Sexualis, ouvrage du neurologiste Richard von Krafft-Ebing (1840-1902) dans lequel il étudie la psychopathologie sexuelle. Il introduit le premier les termes de paranoïa, de sadisme et de masochisme[1].
-Hippolyte Bernheim (1840-1919) : De la suggestion et de ses applications à la thérapeutique[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Psychopathia Sexualis, ouvrage du neurologiste Richard von Krafft-Ebing (1840-1902) dans lequel il étudie la psychopathologie sexuelle. Il introduit le premier les termes de paranoïa, de sadisme et de masochisme.
+Hippolyte Bernheim (1840-1919) : De la suggestion et de ses applications à la thérapeutique.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1886_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1886_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er janvier : Frantz Adam (mort en 1968), psychiatre français.
 19 mars : Adrien Borel (mort en 1966), psychiatre et psychanalyste français.
 22 mai : Hermann Stieve (mort en 1952), anatomiste et histologiste allemand.
 5 juin : Jean Bablet (mort en 1952), médecin militaire, biologiste, anatomo-pathologiste français.
-10 juillet : Augustin Damiens (mort en 1946), médecin et pharmacien français, doyen de la Faculté de pharmacie de Paris[3].
+10 juillet : Augustin Damiens (mort en 1946), médecin et pharmacien français, doyen de la Faculté de pharmacie de Paris.
 21 août : Georges Cousin (mort en 1942), ophtalmologiste et homme politique français.
 24 septembre : Edward Bach (mort en 1936), médecin britannique, homéopathe, à l'origine d'une thérapie par les élixirs floraux, dite « Fleurs de Bach. »
 26 septembre : Archibald Hill (mort en 1977), prix Nobel de physiologie ou médecine en 1922.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1886_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1886_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>10 août : George Busk (né en 1807), chirurgien, zoologiste et paléontologue britannique.</t>
         </is>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1886_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1886_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en)Harry Oosterhuis, « Sexual Modernity in the Works of Richard von Krafft-Ebing and Albert Moll », Medical history, vol. 56, no 2,‎ 2012, p. 133–155 (PMID 23002290, lire en ligne, consulté le 8 octobre 2018) modifier.
